--- a/data/orgs/about/about_pages_to_label.xlsx
+++ b/data/orgs/about/about_pages_to_label.xlsx
@@ -17308,7 +17308,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1004" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1035" sqref="B1035"/>
+      <selection pane="bottomLeft" activeCell="A1035" sqref="A1035"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
